--- a/processed/updated_converted_file.xlsx
+++ b/processed/updated_converted_file.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="377" yWindow="377" windowWidth="17589" windowHeight="10894" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3017" yWindow="3017" windowWidth="17589" windowHeight="10894" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="MARCH" sheetId="1" state="visible" r:id="rId1"/>
@@ -700,6 +700,9 @@
     <xf numFmtId="164" fontId="9" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -710,9 +713,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="9" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1310,7 +1310,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU10"/>
+  <dimension ref="A1:AV11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
@@ -1318,7 +1318,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.15234375" defaultRowHeight="14.15"/>
   <cols>
-    <col width="4" customWidth="1" style="4" min="1" max="1"/>
+    <col width="8" customWidth="1" style="4" min="1" max="1"/>
     <col width="9" customWidth="1" style="4" min="2" max="2"/>
     <col width="16" customWidth="1" style="4" min="3" max="3"/>
     <col width="17" customWidth="1" style="4" min="4" max="4"/>
@@ -1332,8 +1332,8 @@
     <col width="19" customWidth="1" style="4" min="12" max="13"/>
     <col width="21" customWidth="1" min="13" max="13"/>
     <col width="11" customWidth="1" style="1" min="14" max="14"/>
-    <col width="12" customWidth="1" style="3" min="15" max="16"/>
-    <col width="12" customWidth="1" min="16" max="16"/>
+    <col width="25" customWidth="1" style="3" min="15" max="16"/>
+    <col width="17" customWidth="1" min="16" max="16"/>
     <col width="18" customWidth="1" style="2" min="17" max="17"/>
     <col width="24" customWidth="1" style="1" min="18" max="20"/>
     <col width="24" customWidth="1" min="19" max="19"/>
@@ -1343,16 +1343,16 @@
     <col width="23" customWidth="1" style="8" min="23" max="23"/>
     <col width="23" customWidth="1" style="10" min="24" max="24"/>
     <col width="23" customWidth="1" style="8" min="25" max="25"/>
-    <col width="26" customWidth="1" style="8" min="26" max="26"/>
-    <col width="19" customWidth="1" style="8" min="27" max="27"/>
-    <col width="19" customWidth="1" style="9" min="28" max="28"/>
-    <col width="13" customWidth="1" style="4" min="29" max="30"/>
-    <col width="23" customWidth="1" min="30" max="30"/>
-    <col width="23" customWidth="1" style="8" min="31" max="31"/>
-    <col width="25" customWidth="1" style="1" min="32" max="34"/>
-    <col width="2" customWidth="1" min="33" max="33"/>
-    <col width="2" customWidth="1" min="34" max="34"/>
-    <col width="2" customWidth="1" style="1" min="35" max="104"/>
+    <col width="23" customWidth="1" style="8" min="26" max="26"/>
+    <col width="23" customWidth="1" style="8" min="27" max="27"/>
+    <col width="26" customWidth="1" style="9" min="28" max="28"/>
+    <col width="19" customWidth="1" style="4" min="29" max="30"/>
+    <col width="21" customWidth="1" min="30" max="30"/>
+    <col width="25" customWidth="1" style="8" min="31" max="31"/>
+    <col width="23" customWidth="1" style="1" min="32" max="34"/>
+    <col width="23" customWidth="1" min="33" max="33"/>
+    <col width="25" customWidth="1" min="34" max="34"/>
+    <col width="9.15234375" customWidth="1" style="1" min="35" max="104"/>
     <col width="2" customWidth="1" min="36" max="36"/>
     <col width="2" customWidth="1" min="37" max="37"/>
     <col width="2" customWidth="1" min="38" max="38"/>
@@ -1364,6 +1364,8 @@
     <col width="2" customWidth="1" min="44" max="44"/>
     <col width="2" customWidth="1" min="45" max="45"/>
     <col width="2" customWidth="1" min="46" max="46"/>
+    <col width="2" customWidth="1" min="47" max="47"/>
+    <col width="2" customWidth="1" min="48" max="48"/>
     <col width="29.3046875" customWidth="1" style="1" min="105" max="105"/>
     <col width="9.15234375" customWidth="1" style="1" min="106" max="108"/>
     <col width="14" bestFit="1" customWidth="1" style="1" min="109" max="109"/>
@@ -1372,7 +1374,7 @@
     <col width="9.15234375" customWidth="1" style="1" min="113" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1">
+    <row r="1">
       <c r="A1" s="110" t="n"/>
       <c r="B1" s="110" t="n"/>
       <c r="C1" s="110" t="n"/>
@@ -1420,8 +1422,9 @@
       <c r="AS1" s="110" t="n"/>
       <c r="AT1" s="110" t="n"/>
       <c r="AU1" s="110" t="n"/>
+      <c r="AV1" s="110" t="n"/>
     </row>
-    <row r="2" ht="30" customFormat="1" customHeight="1" s="13">
+    <row r="2" ht="25.5" customFormat="1" customHeight="1" s="13">
       <c r="A2" s="110" t="n"/>
       <c r="B2" s="110" t="n"/>
       <c r="C2" s="110" t="n"/>
@@ -1469,8 +1472,9 @@
       <c r="AS2" s="110" t="n"/>
       <c r="AT2" s="110" t="n"/>
       <c r="AU2" s="110" t="n"/>
+      <c r="AV2" s="110" t="n"/>
     </row>
-    <row r="3" ht="30" customFormat="1" customHeight="1" s="13">
+    <row r="3" ht="21.75" customFormat="1" customHeight="1" s="13">
       <c r="A3" s="110" t="n"/>
       <c r="B3" s="110" t="n"/>
       <c r="C3" s="110" t="n"/>
@@ -1518,8 +1522,9 @@
       <c r="AS3" s="110" t="n"/>
       <c r="AT3" s="110" t="n"/>
       <c r="AU3" s="110" t="n"/>
+      <c r="AV3" s="110" t="n"/>
     </row>
-    <row r="4" ht="30" customFormat="1" customHeight="1" s="13">
+    <row r="4" ht="33.75" customFormat="1" customHeight="1" s="13">
       <c r="A4" s="110" t="n"/>
       <c r="B4" s="110" t="n"/>
       <c r="C4" s="110" t="n"/>
@@ -1567,397 +1572,363 @@
       <c r="AS4" s="110" t="n"/>
       <c r="AT4" s="110" t="n"/>
       <c r="AU4" s="110" t="n"/>
+      <c r="AV4" s="110" t="n"/>
     </row>
-    <row r="5" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="A5" s="110" t="inlineStr">
+    <row r="5" ht="21" customFormat="1" customHeight="1" s="13">
+      <c r="A5" s="110" t="n"/>
+      <c r="B5" s="110" t="n"/>
+      <c r="C5" s="110" t="n"/>
+      <c r="D5" s="110" t="n"/>
+      <c r="E5" s="110" t="n"/>
+      <c r="F5" s="110" t="n"/>
+      <c r="G5" s="110" t="n"/>
+      <c r="H5" s="110" t="n"/>
+      <c r="I5" s="110" t="n"/>
+      <c r="J5" s="110" t="n"/>
+      <c r="K5" s="110" t="n"/>
+      <c r="L5" s="110" t="n"/>
+      <c r="M5" s="110" t="n"/>
+      <c r="N5" s="110" t="n"/>
+      <c r="O5" s="110" t="n"/>
+      <c r="P5" s="110" t="n"/>
+      <c r="Q5" s="111" t="n"/>
+      <c r="R5" s="110" t="n"/>
+      <c r="S5" s="110" t="n"/>
+      <c r="T5" s="110" t="n"/>
+      <c r="U5" s="110" t="n"/>
+      <c r="V5" s="111" t="n"/>
+      <c r="W5" s="110" t="n"/>
+      <c r="X5" s="110" t="n"/>
+      <c r="Y5" s="110" t="n"/>
+      <c r="Z5" s="110" t="n"/>
+      <c r="AA5" s="110" t="n"/>
+      <c r="AB5" s="110" t="n"/>
+      <c r="AC5" s="110" t="n"/>
+      <c r="AD5" s="110" t="n"/>
+      <c r="AE5" s="110" t="n"/>
+      <c r="AF5" s="110" t="n"/>
+      <c r="AG5" s="110" t="n"/>
+      <c r="AH5" s="110" t="n"/>
+      <c r="AI5" s="110" t="n"/>
+      <c r="AJ5" s="110" t="n"/>
+      <c r="AK5" s="110" t="n"/>
+      <c r="AL5" s="110" t="n"/>
+      <c r="AM5" s="110" t="n"/>
+      <c r="AN5" s="110" t="n"/>
+      <c r="AO5" s="110" t="n"/>
+      <c r="AP5" s="110" t="n"/>
+      <c r="AQ5" s="110" t="n"/>
+      <c r="AR5" s="110" t="n"/>
+      <c r="AS5" s="110" t="n"/>
+      <c r="AT5" s="110" t="n"/>
+      <c r="AU5" s="110" t="n"/>
+      <c r="AV5" s="110" t="n"/>
+    </row>
+    <row r="6" ht="7.5" customHeight="1">
+      <c r="A6" s="110" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="B5" s="110" t="inlineStr">
+      <c r="B6" s="110" t="inlineStr">
         <is>
           <t>PICTURE</t>
         </is>
       </c>
-      <c r="C5" s="110" t="inlineStr">
+      <c r="C6" s="110" t="inlineStr">
         <is>
           <t>ITEM REFERENCE</t>
         </is>
       </c>
-      <c r="D5" s="110" t="inlineStr">
+      <c r="D6" s="110" t="inlineStr">
         <is>
           <t>EAN 13</t>
         </is>
       </c>
-      <c r="E5" s="110" t="inlineStr">
+      <c r="E6" s="110" t="inlineStr">
         <is>
           <t>FOB PRICE (USD)</t>
         </is>
       </c>
-      <c r="F5" s="110" t="inlineStr">
+      <c r="F6" s="110" t="inlineStr">
         <is>
           <t>AVAILABLE QTY (CARTONS)</t>
         </is>
       </c>
-      <c r="G5" s="110" t="inlineStr">
+      <c r="G6" s="110" t="inlineStr">
         <is>
           <t>ITEM DESCRIPTION</t>
         </is>
       </c>
-      <c r="H5" s="110" t="inlineStr">
+      <c r="H6" s="110" t="inlineStr">
         <is>
           <t>INNER PACKING</t>
         </is>
       </c>
-      <c r="I5" s="110" t="inlineStr">
+      <c r="I6" s="110" t="inlineStr">
         <is>
           <t>ARTICLE N.W. Glass (gr)</t>
         </is>
       </c>
-      <c r="J5" s="110" t="inlineStr">
+      <c r="J6" s="110" t="inlineStr">
         <is>
           <t>ARTICLE N.W. Plastik (gr)</t>
         </is>
       </c>
-      <c r="K5" s="110" t="inlineStr">
+      <c r="K6" s="110" t="inlineStr">
         <is>
           <t>ARTICLE VOL. (ml)</t>
         </is>
       </c>
-      <c r="L5" s="110" t="inlineStr">
+      <c r="L6" s="110" t="inlineStr">
         <is>
           <t>ARTICLE DIA. (mm)</t>
         </is>
       </c>
-      <c r="M5" s="110" t="inlineStr">
+      <c r="M6" s="110" t="inlineStr">
         <is>
           <t>ARTICLE Height (mm)</t>
         </is>
       </c>
-      <c r="N5" s="110" t="inlineStr">
+      <c r="N6" s="110" t="inlineStr">
         <is>
           <t>INNER QTY</t>
         </is>
       </c>
-      <c r="O5" s="110" t="inlineStr">
+      <c r="O6" s="111" t="inlineStr">
         <is>
           <t>INNER G.W.</t>
         </is>
       </c>
-      <c r="P5" s="110" t="inlineStr">
+      <c r="P6" s="111" t="inlineStr">
         <is>
           <t>INNER N.W.</t>
         </is>
       </c>
-      <c r="Q5" s="111" t="inlineStr">
+      <c r="Q6" s="111" t="inlineStr">
         <is>
           <t>INNER N.W. inner</t>
         </is>
       </c>
-      <c r="R5" s="110" t="inlineStr">
+      <c r="R6" s="110" t="inlineStr">
         <is>
           <t>INNER DIMENSION (CM) P</t>
         </is>
       </c>
-      <c r="S5" s="110" t="inlineStr">
+      <c r="S6" s="110" t="inlineStr">
         <is>
           <t>INNER DIMENSION (CM) L</t>
         </is>
       </c>
-      <c r="T5" s="110" t="inlineStr">
+      <c r="T6" s="110" t="inlineStr">
         <is>
           <t>INNER DIMENSION (CM) T</t>
         </is>
       </c>
-      <c r="U5" s="110" t="inlineStr">
+      <c r="U6" s="110" t="inlineStr">
         <is>
           <t>INNER DIMENSION (CM) CBM</t>
         </is>
       </c>
-      <c r="V5" s="111" t="inlineStr">
+      <c r="V6" s="111" t="inlineStr">
         <is>
           <t>MASTER N.W. Master</t>
         </is>
       </c>
-      <c r="W5" s="110" t="inlineStr">
+      <c r="W6" s="110" t="inlineStr">
         <is>
           <t>CARTON DIMENSION (CM)</t>
         </is>
       </c>
-      <c r="X5" s="110" t="inlineStr">
+      <c r="X6" s="110" t="inlineStr">
         <is>
           <t>CARTON DIMENSION (CM)</t>
         </is>
       </c>
-      <c r="Y5" s="110" t="inlineStr">
+      <c r="Y6" s="110" t="inlineStr">
         <is>
           <t>CARTON DIMENSION (CM)</t>
         </is>
       </c>
-      <c r="Z5" s="110" t="inlineStr">
+      <c r="Z6" s="110" t="inlineStr">
+        <is>
+          <t>CARTON DIMENSION (CM)</t>
+        </is>
+      </c>
+      <c r="AA6" s="110" t="inlineStr">
+        <is>
+          <t>CARTON DIMENSION (CM)</t>
+        </is>
+      </c>
+      <c r="AB6" s="110" t="inlineStr">
         <is>
           <t>PIECE QTY PER MASTER CTN</t>
         </is>
       </c>
-      <c r="AA5" s="110" t="inlineStr">
+      <c r="AC6" s="110" t="inlineStr">
         <is>
           <t>N.W. (KG) PER CTN</t>
         </is>
       </c>
-      <c r="AB5" s="110" t="inlineStr">
+      <c r="AD6" s="110" t="inlineStr">
         <is>
           <t>G.W. (KG) PER CTN</t>
         </is>
       </c>
-      <c r="AC5" s="110" t="inlineStr">
+      <c r="AE6" s="110" t="inlineStr">
         <is>
           <t>CBM PER CTN</t>
         </is>
       </c>
-      <c r="AD5" s="110" t="inlineStr">
+      <c r="AF6" s="110" t="inlineStr">
         <is>
           <t>QTY PER-CONTAINER 20'</t>
         </is>
       </c>
-      <c r="AE5" s="110" t="inlineStr">
+      <c r="AG6" s="110" t="inlineStr">
         <is>
           <t>QTY PER-CONTAINER 40'</t>
         </is>
       </c>
-      <c r="AF5" s="110" t="inlineStr">
+      <c r="AH6" s="110" t="inlineStr">
         <is>
           <t>QTY PER-CONTAINER 40'HC</t>
         </is>
       </c>
-      <c r="AG5" s="110" t="inlineStr"/>
-      <c r="AH5" s="110" t="inlineStr"/>
-      <c r="AI5" s="110" t="inlineStr"/>
-      <c r="AJ5" s="110" t="inlineStr"/>
-      <c r="AK5" s="110" t="inlineStr"/>
-      <c r="AL5" s="110" t="inlineStr"/>
-      <c r="AM5" s="110" t="inlineStr"/>
-      <c r="AN5" s="110" t="inlineStr"/>
-      <c r="AO5" s="110" t="inlineStr"/>
-      <c r="AP5" s="110" t="inlineStr"/>
-      <c r="AQ5" s="110" t="inlineStr"/>
-      <c r="AR5" s="110" t="inlineStr"/>
-      <c r="AS5" s="110" t="inlineStr"/>
-      <c r="AT5" s="110" t="inlineStr"/>
-      <c r="AU5" s="110" t="inlineStr">
+      <c r="AI6" s="110" t="inlineStr">
         <is>
           <t>Image Filename</t>
         </is>
       </c>
+      <c r="AJ6" s="110" t="inlineStr"/>
+      <c r="AK6" s="110" t="inlineStr"/>
+      <c r="AL6" s="110" t="inlineStr"/>
+      <c r="AM6" s="110" t="inlineStr"/>
+      <c r="AN6" s="110" t="inlineStr"/>
+      <c r="AO6" s="110" t="inlineStr"/>
+      <c r="AP6" s="110" t="inlineStr"/>
+      <c r="AQ6" s="110" t="inlineStr"/>
+      <c r="AR6" s="110" t="inlineStr"/>
+      <c r="AS6" s="110" t="inlineStr"/>
+      <c r="AT6" s="110" t="inlineStr"/>
+      <c r="AU6" s="110" t="inlineStr"/>
+      <c r="AV6" s="110" t="inlineStr"/>
     </row>
-    <row r="6" ht="30" customHeight="1">
-      <c r="A6" s="41" t="n">
+    <row r="7" ht="130" customFormat="1" customHeight="1" s="13">
+      <c r="A7" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="53" t="n"/>
-      <c r="C6" s="30" t="inlineStr">
+      <c r="B7" s="53" t="n"/>
+      <c r="C7" s="30" t="inlineStr">
         <is>
           <t>AT401</t>
         </is>
       </c>
-      <c r="D6" s="55" t="inlineStr">
+      <c r="D7" s="55" t="inlineStr">
         <is>
           <t>8 993373 250146</t>
         </is>
       </c>
-      <c r="E6" s="112" t="n">
+      <c r="E7" s="112" t="n">
         <v>0.165</v>
       </c>
-      <c r="F6" s="58" t="n">
+      <c r="F7" s="58" t="n">
         <v>1315</v>
       </c>
-      <c r="G6" s="57" t="inlineStr">
+      <c r="G7" s="57" t="inlineStr">
         <is>
           <t>10.9 cm ashtray</t>
         </is>
       </c>
-      <c r="H6" s="29" t="inlineStr">
+      <c r="H7" s="29" t="inlineStr">
         <is>
           <t>6 pcs in brown box</t>
         </is>
       </c>
-      <c r="I6" s="42" t="n">
+      <c r="I7" s="42" t="n">
         <v>190</v>
       </c>
-      <c r="J6" s="42" t="n"/>
-      <c r="K6" s="42" t="n"/>
-      <c r="L6" s="42" t="n">
+      <c r="J7" s="42" t="n"/>
+      <c r="K7" s="42" t="n"/>
+      <c r="L7" s="42" t="n">
         <v>109</v>
-      </c>
-      <c r="M6" s="23" t="n"/>
-      <c r="N6" s="27" t="n">
-        <v>6</v>
-      </c>
-      <c r="O6" s="43" t="n">
-        <v>Error</v>
-      </c>
-      <c r="P6" s="43" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Q6" s="44" t="n">
-        <v>0.066</v>
-      </c>
-      <c r="R6" s="21" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="S6" s="21" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="T6" s="113" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="U6" s="45" t="n">
-        <v>0.002149172999999999</v>
-      </c>
-      <c r="V6" s="46" t="n">
-        <v>0.454</v>
-      </c>
-      <c r="W6" s="114" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="X6" s="26" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="Y6" s="115" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z6" s="49" t="n">
-        <v>72</v>
-      </c>
-      <c r="AA6" s="116" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="AB6" s="116" t="n">
-        <v>Error</v>
-      </c>
-      <c r="AC6" s="117" t="n">
-        <v>0.02989</v>
-      </c>
-      <c r="AD6" s="52" t="n">
-        <v>927</v>
-      </c>
-      <c r="AE6" s="52" t="n"/>
-      <c r="AF6" s="25" t="n"/>
-      <c r="AG6" s="14" t="n"/>
-      <c r="AH6" s="14" t="n"/>
-      <c r="AI6" s="14" t="n"/>
-      <c r="AJ6" s="14" t="n"/>
-      <c r="AK6" s="14" t="n"/>
-      <c r="AL6" s="14" t="n"/>
-      <c r="AM6" s="14" t="n"/>
-      <c r="AN6" s="14" t="n"/>
-      <c r="AO6" s="14" t="n"/>
-      <c r="AP6" s="14" t="n"/>
-      <c r="AQ6" s="14" t="n"/>
-      <c r="AR6" s="14" t="n"/>
-      <c r="AU6" t="inlineStr">
-        <is>
-          <t>20a82131813e456387a21f0705abe993.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="A7" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" s="54" t="n"/>
-      <c r="C7" s="20" t="inlineStr">
-        <is>
-          <t>B2533</t>
-        </is>
-      </c>
-      <c r="D7" s="55" t="inlineStr">
-        <is>
-          <t>8 993373 255707</t>
-        </is>
-      </c>
-      <c r="E7" s="118" t="n">
-        <v>0.105</v>
-      </c>
-      <c r="F7" s="58" t="n">
-        <v>1267</v>
-      </c>
-      <c r="G7" s="28" t="inlineStr">
-        <is>
-          <t>5.9 cm (40 ml)  bowl</t>
-        </is>
-      </c>
-      <c r="H7" s="29" t="inlineStr">
-        <is>
-          <t>12 pcs in brown box</t>
-        </is>
-      </c>
-      <c r="I7" s="42" t="n">
-        <v>45</v>
-      </c>
-      <c r="J7" s="42" t="n"/>
-      <c r="K7" s="42" t="n">
-        <v>40</v>
-      </c>
-      <c r="L7" s="42" t="n">
-        <v>59</v>
       </c>
       <c r="M7" s="23" t="n"/>
       <c r="N7" s="27" t="n">
-        <v>12</v>
-      </c>
-      <c r="O7" s="43" t="n">
-        <v>Error</v>
-      </c>
-      <c r="P7" s="43" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="Q7" s="44" t="n">
-        <v>0.054</v>
+        <v>6</v>
+      </c>
+      <c r="O7" s="43">
+        <f>(J7*N7/1000)+P7+Q7</f>
+        <v/>
+      </c>
+      <c r="P7" s="43">
+        <f>(I7/1000)*N7</f>
+        <v/>
+      </c>
+      <c r="Q7" s="44">
+        <f>0.066</f>
+        <v/>
       </c>
       <c r="R7" s="21" t="n">
-        <v>13.5</v>
+        <v>15.7</v>
       </c>
       <c r="S7" s="21" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="T7" s="21" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="U7" s="45" t="n">
-        <v>0.00085374</v>
+        <v>11.7</v>
+      </c>
+      <c r="T7" s="113" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="U7" s="45">
+        <f>(R7*S7*T7)/1000000</f>
+        <v/>
       </c>
       <c r="V7" s="46" t="n">
-        <v>0.18</v>
+        <v>0.454</v>
       </c>
       <c r="W7" s="114" t="n">
-        <v>41</v>
-      </c>
-      <c r="X7" s="26" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="Y7" s="22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z7" s="49" t="n">
-        <v>144</v>
+        <v>48.8</v>
+      </c>
+      <c r="X7" s="115" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y7" s="26" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="Z7" s="115" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="AA7" s="116" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="AB7" s="116" t="n">
-        <v>Error</v>
-      </c>
-      <c r="AC7" s="117" t="n">
-        <v>0.0122016</v>
-      </c>
-      <c r="AD7" s="52" t="n">
-        <v>2520</v>
-      </c>
-      <c r="AE7" s="52" t="n"/>
-      <c r="AF7" s="25" t="n"/>
-      <c r="AG7" s="14" t="n"/>
-      <c r="AH7" s="14" t="n"/>
-      <c r="AI7" s="14" t="n"/>
+        <v>25</v>
+      </c>
+      <c r="AB7" s="49" t="n">
+        <v>72</v>
+      </c>
+      <c r="AC7" s="117">
+        <f>(I7/1000)*AB7</f>
+        <v/>
+      </c>
+      <c r="AD7" s="117">
+        <f>(AB7/N7)*O7+V7</f>
+        <v/>
+      </c>
+      <c r="AE7" s="118">
+        <f>(W7*Y7*AA7)/1000000</f>
+        <v/>
+      </c>
+      <c r="AF7" s="52" t="n">
+        <v>927</v>
+      </c>
+      <c r="AG7" s="52" t="n"/>
+      <c r="AH7" s="25" t="n"/>
+      <c r="AI7" s="14" t="inlineStr">
+        <is>
+          <t>f75e30028daf44e09affacd5cfe4be58.png</t>
+        </is>
+      </c>
       <c r="AJ7" s="14" t="n"/>
       <c r="AK7" s="14" t="n"/>
       <c r="AL7" s="14" t="n"/>
@@ -1967,110 +1938,127 @@
       <c r="AP7" s="14" t="n"/>
       <c r="AQ7" s="14" t="n"/>
       <c r="AR7" s="14" t="n"/>
-      <c r="AU7" t="inlineStr">
-        <is>
-          <t>b2c1610c3de941818d7ae68f87be071c.png</t>
-        </is>
-      </c>
+      <c r="AS7" s="14" t="n"/>
+      <c r="AT7" s="14" t="n"/>
     </row>
-    <row r="8" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="A8" s="41" t="n">
-        <v>3</v>
+    <row r="8" ht="130" customFormat="1" customHeight="1" s="13">
+      <c r="A8" s="41">
+        <f>A7+1</f>
+        <v/>
       </c>
       <c r="B8" s="54" t="n"/>
       <c r="C8" s="20" t="inlineStr">
         <is>
-          <t>B321</t>
+          <t>B2533</t>
         </is>
       </c>
       <c r="D8" s="55" t="inlineStr">
         <is>
-          <t>8 993373 250191</t>
-        </is>
-      </c>
-      <c r="E8" s="118" t="n">
-        <v>0.115</v>
+          <t>8 993373 255707</t>
+        </is>
+      </c>
+      <c r="E8" s="119" t="n">
+        <v>0.105</v>
       </c>
       <c r="F8" s="58" t="n">
-        <v>300</v>
+        <v>1267</v>
       </c>
       <c r="G8" s="28" t="inlineStr">
         <is>
-          <t>9.2 cm (165 ml) bowl</t>
+          <t>5.9 cm (40 ml)  bowl</t>
         </is>
       </c>
       <c r="H8" s="29" t="inlineStr">
         <is>
-          <t>6 pcs in brown box</t>
+          <t>12 pcs in brown box</t>
         </is>
       </c>
       <c r="I8" s="42" t="n">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="J8" s="42" t="n"/>
       <c r="K8" s="42" t="n">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="L8" s="42" t="n">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="M8" s="23" t="n"/>
       <c r="N8" s="27" t="n">
-        <v>6</v>
-      </c>
-      <c r="O8" s="43" t="n">
-        <v>Error</v>
-      </c>
-      <c r="P8" s="43" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="Q8" s="44" t="n">
-        <v>0.052</v>
+        <v>12</v>
+      </c>
+      <c r="O8" s="43">
+        <f>(J8*N8/1000)+P8+Q8</f>
+        <v/>
+      </c>
+      <c r="P8" s="43">
+        <f>(I8/1000)*N8</f>
+        <v/>
+      </c>
+      <c r="Q8" s="44">
+        <f>0.054</f>
+        <v/>
       </c>
       <c r="R8" s="21" t="n">
-        <v>9.4</v>
+        <v>13.5</v>
       </c>
       <c r="S8" s="21" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="T8" s="113" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="U8" s="45" t="n">
-        <v>0.0011045</v>
+        <v>9.300000000000001</v>
+      </c>
+      <c r="T8" s="21" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="U8" s="45">
+        <f>(R8*S8*T8)/1000000</f>
+        <v/>
       </c>
       <c r="V8" s="46" t="n">
-        <v>0.404</v>
+        <v>0.18</v>
       </c>
       <c r="W8" s="114" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="X8" s="119" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="Y8" s="115" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="Z8" s="49" t="n">
+        <v>41</v>
+      </c>
+      <c r="X8" s="115" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y8" s="26" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="Z8" s="115" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA8" s="22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB8" s="49" t="n">
         <v>144</v>
       </c>
-      <c r="AA8" s="116" t="n">
-        <v>15.84</v>
-      </c>
-      <c r="AB8" s="116" t="n">
-        <v>Error</v>
-      </c>
-      <c r="AC8" s="117" t="n">
-        <v>0.032044375</v>
-      </c>
-      <c r="AD8" s="52" t="n">
-        <v>904</v>
-      </c>
-      <c r="AE8" s="52" t="n"/>
-      <c r="AF8" s="25" t="n"/>
-      <c r="AG8" s="14" t="n"/>
-      <c r="AH8" s="14" t="n"/>
-      <c r="AI8" s="14" t="n"/>
+      <c r="AC8" s="117">
+        <f>(I8/1000)*AB8</f>
+        <v/>
+      </c>
+      <c r="AD8" s="117">
+        <f>(AB8/N8)*O8+V8</f>
+        <v/>
+      </c>
+      <c r="AE8" s="118">
+        <f>(W8*Y8*AA8)/1000000</f>
+        <v/>
+      </c>
+      <c r="AF8" s="52" t="n">
+        <v>2520</v>
+      </c>
+      <c r="AG8" s="52" t="n"/>
+      <c r="AH8" s="25" t="n"/>
+      <c r="AI8" s="14" t="inlineStr">
+        <is>
+          <t>cdde7118aee6497aa5238adb035940d0.png</t>
+        </is>
+      </c>
       <c r="AJ8" s="14" t="n"/>
       <c r="AK8" s="14" t="n"/>
       <c r="AL8" s="14" t="n"/>
@@ -2080,28 +2068,26 @@
       <c r="AP8" s="14" t="n"/>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
-      <c r="AU8" t="inlineStr">
-        <is>
-          <t>b851e82d72d64625bfbba2f127648758.png</t>
-        </is>
-      </c>
+      <c r="AS8" s="14" t="n"/>
+      <c r="AT8" s="14" t="n"/>
     </row>
-    <row r="9" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="A9" s="41" t="n">
-        <v>4</v>
+    <row r="9" ht="130" customFormat="1" customHeight="1" s="13">
+      <c r="A9" s="41">
+        <f>A8+1</f>
+        <v/>
       </c>
       <c r="B9" s="54" t="n"/>
       <c r="C9" s="20" t="inlineStr">
         <is>
-          <t>B329</t>
-        </is>
-      </c>
-      <c r="D9" s="40" t="inlineStr">
-        <is>
-          <t>8 993373 382335</t>
-        </is>
-      </c>
-      <c r="E9" s="118" t="n">
+          <t>B321</t>
+        </is>
+      </c>
+      <c r="D9" s="55" t="inlineStr">
+        <is>
+          <t>8 993373 250191</t>
+        </is>
+      </c>
+      <c r="E9" s="119" t="n">
         <v>0.115</v>
       </c>
       <c r="F9" s="58" t="n">
@@ -2131,14 +2117,17 @@
       <c r="N9" s="27" t="n">
         <v>6</v>
       </c>
-      <c r="O9" s="43" t="n">
-        <v>Error</v>
-      </c>
-      <c r="P9" s="43" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="Q9" s="44" t="n">
-        <v>0.052</v>
+      <c r="O9" s="43">
+        <f>(J9*N9/1000)+P9+Q9</f>
+        <v/>
+      </c>
+      <c r="P9" s="43">
+        <f>(I9/1000)*N9</f>
+        <v/>
+      </c>
+      <c r="Q9" s="44">
+        <f>0.052</f>
+        <v/>
       </c>
       <c r="R9" s="21" t="n">
         <v>9.4</v>
@@ -2149,8 +2138,9 @@
       <c r="T9" s="113" t="n">
         <v>12.5</v>
       </c>
-      <c r="U9" s="45" t="n">
-        <v>0.0011045</v>
+      <c r="U9" s="45">
+        <f>(R9*S9*T9)/1000000</f>
+        <v/>
       </c>
       <c r="V9" s="46" t="n">
         <v>0.404</v>
@@ -2158,32 +2148,47 @@
       <c r="W9" s="114" t="n">
         <v>39.5</v>
       </c>
-      <c r="X9" s="119" t="n">
+      <c r="X9" s="115" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y9" s="115" t="n">
         <v>29.5</v>
       </c>
-      <c r="Y9" s="115" t="n">
+      <c r="Z9" s="115" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA9" s="116" t="n">
         <v>27.5</v>
       </c>
-      <c r="Z9" s="49" t="n">
+      <c r="AB9" s="49" t="n">
         <v>144</v>
       </c>
-      <c r="AA9" s="116" t="n">
-        <v>15.84</v>
-      </c>
-      <c r="AB9" s="116" t="n">
-        <v>Error</v>
-      </c>
-      <c r="AC9" s="117" t="n">
-        <v>0.032044375</v>
-      </c>
-      <c r="AD9" s="52" t="n">
+      <c r="AC9" s="117">
+        <f>(I9/1000)*AB9</f>
+        <v/>
+      </c>
+      <c r="AD9" s="117">
+        <f>(AB9/N9)*O9+V9</f>
+        <v/>
+      </c>
+      <c r="AE9" s="118">
+        <f>(W9*Y9*AA9)/1000000</f>
+        <v/>
+      </c>
+      <c r="AF9" s="52" t="n">
         <v>904</v>
       </c>
-      <c r="AE9" s="52" t="n"/>
-      <c r="AF9" s="25" t="n"/>
-      <c r="AG9" s="14" t="n"/>
-      <c r="AH9" s="14" t="n"/>
-      <c r="AI9" s="14" t="n"/>
+      <c r="AG9" s="52" t="n"/>
+      <c r="AH9" s="25" t="n"/>
+      <c r="AI9" s="14" t="inlineStr">
+        <is>
+          <t>a63d0e2935b44516aa5cdabcad8f81d5.png</t>
+        </is>
+      </c>
       <c r="AJ9" s="14" t="n"/>
       <c r="AK9" s="14" t="n"/>
       <c r="AL9" s="14" t="n"/>
@@ -2193,32 +2198,30 @@
       <c r="AP9" s="14" t="n"/>
       <c r="AQ9" s="14" t="n"/>
       <c r="AR9" s="14" t="n"/>
-      <c r="AU9" t="inlineStr">
-        <is>
-          <t>9689392956174136969baeee3a244f7c.png</t>
-        </is>
-      </c>
+      <c r="AS9" s="14" t="n"/>
+      <c r="AT9" s="14" t="n"/>
     </row>
-    <row r="10" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="A10" s="41" t="n">
-        <v>5</v>
+    <row r="10" ht="130" customFormat="1" customHeight="1" s="13">
+      <c r="A10" s="41">
+        <f>A9+1</f>
+        <v/>
       </c>
       <c r="B10" s="54" t="n"/>
       <c r="C10" s="20" t="inlineStr">
         <is>
-          <t>B337</t>
+          <t>B329</t>
         </is>
       </c>
       <c r="D10" s="40" t="inlineStr">
         <is>
-          <t>8 993373 381093</t>
-        </is>
-      </c>
-      <c r="E10" s="118" t="n">
+          <t>8 993373 382335</t>
+        </is>
+      </c>
+      <c r="E10" s="119" t="n">
         <v>0.115</v>
       </c>
       <c r="F10" s="58" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="G10" s="28" t="inlineStr">
         <is>
@@ -2244,14 +2247,17 @@
       <c r="N10" s="27" t="n">
         <v>6</v>
       </c>
-      <c r="O10" s="43" t="n">
-        <v>Error</v>
-      </c>
-      <c r="P10" s="43" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="Q10" s="44" t="n">
-        <v>0.052</v>
+      <c r="O10" s="43">
+        <f>(J10*N10/1000)+P10+Q10</f>
+        <v/>
+      </c>
+      <c r="P10" s="43">
+        <f>(I10/1000)*N10</f>
+        <v/>
+      </c>
+      <c r="Q10" s="44">
+        <f>0.052</f>
+        <v/>
       </c>
       <c r="R10" s="21" t="n">
         <v>9.4</v>
@@ -2262,8 +2268,9 @@
       <c r="T10" s="113" t="n">
         <v>12.5</v>
       </c>
-      <c r="U10" s="45" t="n">
-        <v>0.0011045</v>
+      <c r="U10" s="45">
+        <f>(R10*S10*T10)/1000000</f>
+        <v/>
       </c>
       <c r="V10" s="46" t="n">
         <v>0.404</v>
@@ -2271,32 +2278,47 @@
       <c r="W10" s="114" t="n">
         <v>39.5</v>
       </c>
-      <c r="X10" s="119" t="n">
+      <c r="X10" s="115" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y10" s="115" t="n">
         <v>29.5</v>
       </c>
-      <c r="Y10" s="115" t="n">
+      <c r="Z10" s="115" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA10" s="116" t="n">
         <v>27.5</v>
       </c>
-      <c r="Z10" s="49" t="n">
+      <c r="AB10" s="49" t="n">
         <v>144</v>
       </c>
-      <c r="AA10" s="116" t="n">
-        <v>15.84</v>
-      </c>
-      <c r="AB10" s="116" t="n">
-        <v>Error</v>
-      </c>
-      <c r="AC10" s="117" t="n">
-        <v>0.032044375</v>
-      </c>
-      <c r="AD10" s="52" t="n">
+      <c r="AC10" s="117">
+        <f>(I10/1000)*AB10</f>
+        <v/>
+      </c>
+      <c r="AD10" s="117">
+        <f>(AB10/N10)*O10+V10</f>
+        <v/>
+      </c>
+      <c r="AE10" s="118">
+        <f>(W10*Y10*AA10)/1000000</f>
+        <v/>
+      </c>
+      <c r="AF10" s="52" t="n">
         <v>904</v>
       </c>
-      <c r="AE10" s="52" t="n"/>
-      <c r="AF10" s="25" t="n"/>
-      <c r="AG10" s="14" t="n"/>
-      <c r="AH10" s="14" t="n"/>
-      <c r="AI10" s="14" t="n"/>
+      <c r="AG10" s="52" t="n"/>
+      <c r="AH10" s="25" t="n"/>
+      <c r="AI10" s="14" t="inlineStr">
+        <is>
+          <t>e8dc63b7931a4a6888c9626615c66853.png</t>
+        </is>
+      </c>
       <c r="AJ10" s="14" t="n"/>
       <c r="AK10" s="14" t="n"/>
       <c r="AL10" s="14" t="n"/>
@@ -2306,13 +2328,139 @@
       <c r="AP10" s="14" t="n"/>
       <c r="AQ10" s="14" t="n"/>
       <c r="AR10" s="14" t="n"/>
-      <c r="AU10" t="inlineStr">
-        <is>
-          <t>73d89475c21341a2ad2e7fbf47a41141.png</t>
-        </is>
-      </c>
+      <c r="AS10" s="14" t="n"/>
+      <c r="AT10" s="14" t="n"/>
     </row>
-    <row r="11" ht="130" customFormat="1" customHeight="1" s="13"/>
+    <row r="11" ht="130" customFormat="1" customHeight="1" s="13">
+      <c r="A11" s="41">
+        <f>A10+1</f>
+        <v/>
+      </c>
+      <c r="B11" s="54" t="n"/>
+      <c r="C11" s="20" t="inlineStr">
+        <is>
+          <t>B337</t>
+        </is>
+      </c>
+      <c r="D11" s="40" t="inlineStr">
+        <is>
+          <t>8 993373 381093</t>
+        </is>
+      </c>
+      <c r="E11" s="119" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F11" s="58" t="n">
+        <v>450</v>
+      </c>
+      <c r="G11" s="28" t="inlineStr">
+        <is>
+          <t>9.2 cm (165 ml) bowl</t>
+        </is>
+      </c>
+      <c r="H11" s="29" t="inlineStr">
+        <is>
+          <t>6 pcs in brown box</t>
+        </is>
+      </c>
+      <c r="I11" s="42" t="n">
+        <v>110</v>
+      </c>
+      <c r="J11" s="42" t="n"/>
+      <c r="K11" s="42" t="n">
+        <v>165</v>
+      </c>
+      <c r="L11" s="42" t="n">
+        <v>92</v>
+      </c>
+      <c r="M11" s="23" t="n"/>
+      <c r="N11" s="27" t="n">
+        <v>6</v>
+      </c>
+      <c r="O11" s="43">
+        <f>(J11*N11/1000)+P11+Q11</f>
+        <v/>
+      </c>
+      <c r="P11" s="43">
+        <f>(I11/1000)*N11</f>
+        <v/>
+      </c>
+      <c r="Q11" s="44">
+        <f>0.052</f>
+        <v/>
+      </c>
+      <c r="R11" s="21" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="S11" s="21" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="T11" s="113" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="U11" s="45">
+        <f>(R11*S11*T11)/1000000</f>
+        <v/>
+      </c>
+      <c r="V11" s="46" t="n">
+        <v>0.404</v>
+      </c>
+      <c r="W11" s="114" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="X11" s="115" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y11" s="115" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="Z11" s="115" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA11" s="116" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="AB11" s="49" t="n">
+        <v>144</v>
+      </c>
+      <c r="AC11" s="117">
+        <f>(I11/1000)*AB11</f>
+        <v/>
+      </c>
+      <c r="AD11" s="117">
+        <f>(AB11/N11)*O11+V11</f>
+        <v/>
+      </c>
+      <c r="AE11" s="118">
+        <f>(W11*Y11*AA11)/1000000</f>
+        <v/>
+      </c>
+      <c r="AF11" s="52" t="n">
+        <v>904</v>
+      </c>
+      <c r="AG11" s="52" t="n"/>
+      <c r="AH11" s="25" t="n"/>
+      <c r="AI11" s="14" t="inlineStr">
+        <is>
+          <t>d3c114cdf3f344b8b0d52e555380e883.png</t>
+        </is>
+      </c>
+      <c r="AJ11" s="14" t="n"/>
+      <c r="AK11" s="14" t="n"/>
+      <c r="AL11" s="14" t="n"/>
+      <c r="AM11" s="14" t="n"/>
+      <c r="AN11" s="14" t="n"/>
+      <c r="AO11" s="14" t="n"/>
+      <c r="AP11" s="14" t="n"/>
+      <c r="AQ11" s="14" t="n"/>
+      <c r="AR11" s="14" t="n"/>
+      <c r="AS11" s="14" t="n"/>
+      <c r="AT11" s="14" t="n"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
